--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2662.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2662.xlsx
@@ -354,10 +354,10 @@
         <v>1.16561775481687</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.9834926581618986</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2662.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2662.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7713687266429441</v>
+        <v>1.640985608100891</v>
       </c>
       <c r="B1">
-        <v>1.16561775481687</v>
+        <v>1.693534135818481</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.659261107444763</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.983187317848206</v>
       </c>
       <c r="E1">
-        <v>0.9834926581618986</v>
+        <v>2.793979406356812</v>
       </c>
     </row>
   </sheetData>
